--- a/Bitacoras/Bitacora_1.xlsx
+++ b/Bitacoras/Bitacora_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a195dc11b842bbc7/Escritorio/Notas-sena/Bitacoras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7755A-1007-4DD6-B5C3-F3656C29215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{91B7755A-1007-4DD6-B5C3-F3656C29215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E788E1BA-7FC4-4E0F-A122-EB230AE85DD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,21 +479,12 @@
     <t>Manejo de base de datos</t>
   </si>
   <si>
-    <t xml:space="preserve">Solución de casos en proyecto existente en NEWSOL el cual gestionara casos con sus respectivos roles, informacion, modulos, sub modulos entre otros, a nivel de desarrollo </t>
-  </si>
-  <si>
     <t>Manejo de git y gitHub (pull request, creacion de ramas, push, pulls, manejo de conflictos entre ramas)</t>
   </si>
   <si>
     <t>Reuniones de semanal de equipo</t>
   </si>
   <si>
-    <t>Codigo privado de la empresa NEWSOL, se muestra un recorte del mismo</t>
-  </si>
-  <si>
-    <t>Se utiliza la herrramienta de notion, se muestra en la evidencia las actas de reunion generadas</t>
-  </si>
-  <si>
     <t>Commits generados</t>
   </si>
   <si>
@@ -504,6 +495,15 @@
   </si>
   <si>
     <t>hysanchez334@sena.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solución de casos en proyecto existente en NEWSOL el cual gestionara casos con sus respectivos roles, información, módulos, submódulos, entre otros, a nivel de desarrollo </t>
+  </si>
+  <si>
+    <t>Código privado de la empresa NEWSOL, se muestra un recorte del mismo</t>
+  </si>
+  <si>
+    <t>Se utiliza la herramienta de Notion, se muestra en la evidencia las actas de reunión generadas</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1028,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1055,14 +1097,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1073,30 +1130,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1115,33 +1148,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1177,12 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1476,6 +1476,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1120067</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>157881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFFB43F-D741-92E9-12E4-90572A3E1ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810251" y="21648965"/>
+          <a:ext cx="1419423" cy="266737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1556,6 +1600,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2777,8 +2825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Y57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2857,7 +2905,7 @@
       <c r="T2" s="108"/>
       <c r="U2" s="108"/>
       <c r="V2" s="109"/>
-      <c r="W2" s="79" t="s">
+      <c r="W2" s="73" t="s">
         <v>82</v>
       </c>
       <c r="X2" s="105"/>
@@ -2920,91 +2968,91 @@
       <c r="Y4" s="112"/>
     </row>
     <row r="5" spans="2:25" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="90"/>
-      <c r="T5" s="90"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="93"/>
     </row>
     <row r="6" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="90"/>
-      <c r="V6" s="90"/>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="92"/>
+      <c r="Y6" s="93"/>
     </row>
     <row r="7" spans="2:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
     </row>
     <row r="8" spans="2:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
       <c r="E8" s="113"/>
@@ -3030,72 +3078,72 @@
       <c r="Y8" s="113"/>
     </row>
     <row r="9" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="75" t="s">
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="78" t="s">
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
     </row>
     <row r="10" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="78" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="75">
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="69">
         <v>1</v>
       </c>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="94" t="s">
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="96"/>
+      <c r="W10" s="96"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
     </row>
     <row r="11" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -3135,25 +3183,25 @@
       <c r="H12" s="101"/>
       <c r="I12" s="101"/>
       <c r="J12" s="101"/>
-      <c r="K12" s="95" t="s">
+      <c r="K12" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95" t="s">
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
     </row>
     <row r="13" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98" t="s">
@@ -3167,25 +3215,25 @@
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
       <c r="J13" s="100"/>
-      <c r="K13" s="96">
+      <c r="K13" s="75">
         <v>3002132878</v>
       </c>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97" t="s">
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
     </row>
     <row r="14" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
@@ -3242,72 +3290,72 @@
       <c r="Y15" s="114"/>
     </row>
     <row r="16" spans="2:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92" t="s">
+      <c r="F16" s="94"/>
+      <c r="G16" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="92"/>
-      <c r="J16" s="93"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="118" t="s">
         <v>96</v>
       </c>
       <c r="L16" s="119"/>
       <c r="M16" s="120"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="92" t="s">
+      <c r="N16" s="95"/>
+      <c r="O16" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="92" t="s">
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="92"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="92" t="s">
+      <c r="T16" s="94"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="96"/>
     </row>
     <row r="17" spans="2:25" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
       <c r="K17" s="121"/>
       <c r="L17" s="122"/>
       <c r="M17" s="123"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="96"/>
     </row>
     <row r="18" spans="2:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
@@ -3336,42 +3384,42 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="69" t="s">
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="69" t="s">
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71" t="s">
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="73"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="84"/>
     </row>
     <row r="20" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="99" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="124"/>
       <c r="D20" s="124"/>
@@ -3380,28 +3428,28 @@
       <c r="G20" s="124"/>
       <c r="H20" s="124"/>
       <c r="I20" s="124"/>
-      <c r="J20" s="96">
+      <c r="J20" s="75">
         <v>1233496433</v>
       </c>
       <c r="K20" s="125"/>
       <c r="L20" s="125"/>
       <c r="M20" s="125"/>
       <c r="N20" s="125"/>
-      <c r="O20" s="69">
+      <c r="O20" s="80">
         <v>3118047047</v>
       </c>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="73"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="84"/>
     </row>
     <row r="21" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
@@ -3430,7 +3478,7 @@
       <c r="Y21" s="8"/>
     </row>
     <row r="22" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="115"/>
@@ -3441,14 +3489,14 @@
       <c r="H22" s="115"/>
       <c r="I22" s="115"/>
       <c r="J22" s="116"/>
-      <c r="K22" s="78" t="s">
+      <c r="K22" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="117"/>
       <c r="R22" s="117"/>
       <c r="S22" s="117"/>
@@ -3460,34 +3508,34 @@
       <c r="Y22" s="117"/>
     </row>
     <row r="23" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="84">
+      <c r="B23" s="86">
         <v>2671339</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="84" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="L23" s="85"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="85"/>
-      <c r="X23" s="85"/>
-      <c r="Y23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="88"/>
     </row>
     <row r="24" spans="2:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -3516,622 +3564,622 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="75" t="s">
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="87"/>
-      <c r="M25" s="75" t="s">
+      <c r="L25" s="89"/>
+      <c r="M25" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="87"/>
-      <c r="O25" s="75" t="s">
+      <c r="N25" s="89"/>
+      <c r="O25" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="75" t="s">
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="88"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="90"/>
     </row>
     <row r="26" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="80">
+      <c r="B26" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="56">
         <v>45222</v>
       </c>
-      <c r="L26" s="81"/>
-      <c r="M26" s="80">
+      <c r="L26" s="57"/>
+      <c r="M26" s="56">
         <v>45237</v>
       </c>
-      <c r="N26" s="81"/>
-      <c r="O26" s="46" t="e" vm="1">
+      <c r="N26" s="57"/>
+      <c r="O26" s="60" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="57"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="52"/>
     </row>
     <row r="27" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
       <c r="K27" s="102"/>
       <c r="L27" s="103"/>
       <c r="M27" s="102"/>
       <c r="N27" s="103"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="60"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="78"/>
+      <c r="W27" s="78"/>
+      <c r="X27" s="78"/>
+      <c r="Y27" s="79"/>
     </row>
     <row r="28" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
       <c r="K28" s="102"/>
       <c r="L28" s="103"/>
       <c r="M28" s="102"/>
       <c r="N28" s="103"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="60"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="78"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="79"/>
     </row>
     <row r="29" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
       <c r="K29" s="102"/>
       <c r="L29" s="103"/>
       <c r="M29" s="102"/>
       <c r="N29" s="103"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="60"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="79"/>
     </row>
     <row r="30" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="79"/>
       <c r="K30" s="102"/>
       <c r="L30" s="103"/>
       <c r="M30" s="102"/>
       <c r="N30" s="103"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="60"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="77"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="79"/>
     </row>
     <row r="31" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="58"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
       <c r="K31" s="102"/>
       <c r="L31" s="103"/>
       <c r="M31" s="102"/>
       <c r="N31" s="103"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="60"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="79"/>
     </row>
     <row r="32" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="58"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
       <c r="K32" s="102"/>
       <c r="L32" s="103"/>
       <c r="M32" s="102"/>
       <c r="N32" s="103"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="60"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="79"/>
     </row>
     <row r="33" spans="2:25" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="54"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="63"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="55"/>
     </row>
     <row r="34" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="80">
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="56">
         <v>45224</v>
       </c>
-      <c r="L34" s="81"/>
-      <c r="M34" s="80">
+      <c r="L34" s="57"/>
+      <c r="M34" s="56">
         <v>45224</v>
       </c>
-      <c r="N34" s="81"/>
-      <c r="O34" s="46" t="e" vm="2">
+      <c r="N34" s="57"/>
+      <c r="O34" s="60" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="57"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="52"/>
     </row>
     <row r="35" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="60"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="78"/>
+      <c r="W35" s="78"/>
+      <c r="X35" s="78"/>
+      <c r="Y35" s="79"/>
     </row>
     <row r="36" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="80">
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="56">
         <v>45231</v>
       </c>
-      <c r="L36" s="81"/>
-      <c r="M36" s="80">
+      <c r="L36" s="57"/>
+      <c r="M36" s="56">
         <v>45231</v>
       </c>
-      <c r="N36" s="81"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="58"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="60"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="77"/>
+      <c r="V36" s="78"/>
+      <c r="W36" s="78"/>
+      <c r="X36" s="78"/>
+      <c r="Y36" s="79"/>
     </row>
     <row r="37" spans="2:25" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="61"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="54"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="63"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="55"/>
     </row>
     <row r="38" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="80">
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="56">
         <v>45222</v>
       </c>
-      <c r="L38" s="81"/>
-      <c r="M38" s="80">
+      <c r="L38" s="57"/>
+      <c r="M38" s="56">
         <v>45237</v>
       </c>
-      <c r="N38" s="81"/>
-      <c r="O38" s="55" t="e" vm="3">
+      <c r="N38" s="57"/>
+      <c r="O38" s="50" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="57"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="52"/>
     </row>
     <row r="39" spans="2:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="63"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="55"/>
     </row>
     <row r="40" spans="2:25" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="56">
+        <v>45222</v>
+      </c>
+      <c r="L40" s="57"/>
+      <c r="M40" s="56">
+        <v>45237</v>
+      </c>
+      <c r="N40" s="57"/>
+      <c r="O40" s="50" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="52"/>
+      <c r="U40" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="52"/>
+    </row>
+    <row r="41" spans="2:25" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="55"/>
+    </row>
+    <row r="42" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="80">
-        <v>45222</v>
-      </c>
-      <c r="L40" s="81"/>
-      <c r="M40" s="80">
-        <v>45237</v>
-      </c>
-      <c r="N40" s="81"/>
-      <c r="O40" s="55" t="e" vm="4">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="56">
+        <v>45226</v>
+      </c>
+      <c r="L42" s="57"/>
+      <c r="M42" s="56">
+        <v>45226</v>
+      </c>
+      <c r="N42" s="57"/>
+      <c r="O42" s="60" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="57"/>
-    </row>
-    <row r="41" spans="2:25" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="61"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="63"/>
-    </row>
-    <row r="42" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="80">
-        <v>45226</v>
-      </c>
-      <c r="L42" s="81"/>
-      <c r="M42" s="80">
-        <v>45226</v>
-      </c>
-      <c r="N42" s="81"/>
-      <c r="O42" s="46" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="57"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="52"/>
     </row>
     <row r="43" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="61"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="60"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="79"/>
     </row>
     <row r="44" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="80">
+      <c r="B44" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="56">
         <v>45233</v>
       </c>
-      <c r="L44" s="81"/>
-      <c r="M44" s="80">
+      <c r="L44" s="57"/>
+      <c r="M44" s="56">
         <v>45233</v>
       </c>
-      <c r="N44" s="81"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="51"/>
-      <c r="U44" s="58"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="60"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="78"/>
+      <c r="W44" s="78"/>
+      <c r="X44" s="78"/>
+      <c r="Y44" s="79"/>
     </row>
     <row r="45" spans="2:25" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="61"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="52"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="54"/>
-      <c r="U45" s="61"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="63"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="67"/>
+      <c r="R45" s="67"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="68"/>
+      <c r="U45" s="53"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="55"/>
     </row>
     <row r="46" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="127" t="s">
@@ -4188,16 +4236,16 @@
       <c r="Y47" s="10"/>
     </row>
     <row r="48" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
+      <c r="B48" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -4216,14 +4264,14 @@
       <c r="Y48" s="10"/>
     </row>
     <row r="49" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -4242,35 +4290,35 @@
       <c r="Y49" s="8"/>
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="66" t="s">
+      <c r="K50" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L50" s="66"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66"/>
-      <c r="Q50" s="66"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
       <c r="R50" s="13"/>
       <c r="S50" s="11"/>
-      <c r="T50" s="64" t="s">
+      <c r="T50" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
       <c r="Y50" s="11"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
@@ -4300,14 +4348,14 @@
       <c r="Y51" s="11"/>
     </row>
     <row r="52" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
@@ -4336,36 +4384,36 @@
       <c r="Y53" s="12"/>
     </row>
     <row r="54" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="66" t="s">
+      <c r="K54" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="L54" s="66"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66"/>
-      <c r="Q54" s="66"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="47"/>
       <c r="R54" s="13"/>
-      <c r="S54" s="67" t="s">
+      <c r="S54" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
+      <c r="T54" s="49"/>
+      <c r="U54" s="49"/>
+      <c r="V54" s="49"/>
+      <c r="W54" s="49"/>
+      <c r="X54" s="49"/>
+      <c r="Y54" s="49"/>
     </row>
     <row r="55" spans="2:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q55" s="126"/>
@@ -4378,55 +4426,55 @@
       <c r="B56" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="49"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="49"/>
+      <c r="U56" s="49"/>
+      <c r="V56" s="49"/>
+      <c r="W56" s="49"/>
+      <c r="X56" s="49"/>
+      <c r="Y56" s="49"/>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="49"/>
+      <c r="U57" s="49"/>
+      <c r="V57" s="49"/>
+      <c r="W57" s="49"/>
+      <c r="X57" s="49"/>
+      <c r="Y57" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="97">
@@ -4439,6 +4487,13 @@
     <mergeCell ref="U40:Y41"/>
     <mergeCell ref="T50:X50"/>
     <mergeCell ref="B46:Y46"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="K36:L37"/>
+    <mergeCell ref="M26:N33"/>
+    <mergeCell ref="B34:J35"/>
     <mergeCell ref="B5:Y5"/>
     <mergeCell ref="B7:Y7"/>
     <mergeCell ref="B8:Y8"/>
@@ -4460,13 +4515,6 @@
     <mergeCell ref="B1:V2"/>
     <mergeCell ref="B3:Y3"/>
     <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="K36:L37"/>
-    <mergeCell ref="M26:N33"/>
-    <mergeCell ref="B34:J35"/>
     <mergeCell ref="K34:L35"/>
     <mergeCell ref="M34:N35"/>
     <mergeCell ref="B26:J33"/>
@@ -4477,12 +4525,18 @@
     <mergeCell ref="B42:J43"/>
     <mergeCell ref="K42:L43"/>
     <mergeCell ref="M42:N43"/>
+    <mergeCell ref="B36:J37"/>
+    <mergeCell ref="B40:J41"/>
+    <mergeCell ref="M38:N39"/>
+    <mergeCell ref="K40:L41"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="P9:S9"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B36:J37"/>
+    <mergeCell ref="T20:Y20"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="K23:Y23"/>
     <mergeCell ref="U25:Y25"/>
@@ -4498,34 +4552,28 @@
     <mergeCell ref="Q12:Y12"/>
     <mergeCell ref="K12:P12"/>
     <mergeCell ref="K13:P13"/>
-    <mergeCell ref="B40:J41"/>
-    <mergeCell ref="M38:N39"/>
-    <mergeCell ref="K40:L41"/>
-    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q13:Y13"/>
+    <mergeCell ref="B48:I49"/>
+    <mergeCell ref="U42:Y45"/>
+    <mergeCell ref="O26:T33"/>
+    <mergeCell ref="U26:Y33"/>
+    <mergeCell ref="O34:T37"/>
+    <mergeCell ref="U34:Y37"/>
     <mergeCell ref="U38:Y39"/>
     <mergeCell ref="B38:J39"/>
     <mergeCell ref="O38:T39"/>
     <mergeCell ref="O19:S19"/>
     <mergeCell ref="O20:S20"/>
     <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q13:Y13"/>
-    <mergeCell ref="B48:I49"/>
-    <mergeCell ref="U42:Y45"/>
     <mergeCell ref="B54:I54"/>
     <mergeCell ref="K54:Q54"/>
     <mergeCell ref="S54:Y54"/>
     <mergeCell ref="B44:J45"/>
     <mergeCell ref="K44:L45"/>
     <mergeCell ref="B50:I50"/>
-    <mergeCell ref="O26:T33"/>
-    <mergeCell ref="U26:Y33"/>
-    <mergeCell ref="O34:T37"/>
-    <mergeCell ref="U34:Y37"/>
     <mergeCell ref="O42:T45"/>
   </mergeCells>
   <hyperlinks>
@@ -4816,38 +4864,38 @@
       <c r="X10" s="114"/>
     </row>
     <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94" t="s">
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
     </row>
     <row r="12" spans="1:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -4964,31 +5012,31 @@
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="65" t="s">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="64" t="s">
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="142" t="s">
         <v>33</v>
       </c>
